--- a/in/名单.xlsx
+++ b/in/名单.xlsx
@@ -27,21 +27,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>have</t>
   </si>
   <si>
     <t>string</t>
@@ -1210,13 +1216,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1237,7 +1243,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1246,44 +1252,61 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
